--- a/data/trans_orig/Q02D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R-Clase-trans_orig.xlsx
@@ -666,13 +666,13 @@
         <v>4.247870344528618</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.945495536667594</v>
+        <v>5.945495536667595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.539796534369414</v>
+        <v>7.539796534369415</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>5.266033743070344</v>
+        <v>5.266033743070345</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>6.407148022596673</v>
@@ -687,7 +687,7 @@
         <v>4.221191389910285</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5.386448993269316</v>
+        <v>5.386448993269315</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>7.911608193399699</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.801407103950052</v>
+        <v>2.780715380370305</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.737361198594328</v>
+        <v>3.794978172531416</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.088896489134065</v>
+        <v>5.145763971892715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.806007765785711</v>
+        <v>5.733620552922253</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.51963970608722</v>
+        <v>4.491800659642632</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.807891321382741</v>
+        <v>5.817001274836326</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.257747526881236</v>
+        <v>8.303925482249159</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.708760335771096</v>
+        <v>6.548054208240791</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.742699804797085</v>
+        <v>3.774569714587968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.989391697301068</v>
+        <v>5.015090801275835</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.182621350147391</v>
+        <v>7.146853321356478</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.640539172896013</v>
+        <v>6.634995425147818</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.971465656862412</v>
+        <v>3.971705991282147</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.755454581375308</v>
+        <v>4.735414842362673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.891859183925665</v>
+        <v>6.872422659582278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.0448165790356</v>
+        <v>10.45815605058443</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.22325911748999</v>
+        <v>6.138106699447009</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.049269818511531</v>
+        <v>7.088196162846746</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.42987256456005</v>
+        <v>10.4817492645557</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.316627370429932</v>
+        <v>9.130012353851914</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.795550905048872</v>
+        <v>4.812789094267909</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5.810396406591995</v>
+        <v>5.793672350265841</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8.725910308803774</v>
+        <v>8.714534341625743</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>9.016731207146462</v>
+        <v>8.995016740320976</v>
       </c>
     </row>
     <row r="7">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3.506645303878028</v>
+        <v>3.506645303878029</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.7558662734438</v>
+        <v>4.755866273443802</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>6.887561243746653</v>
@@ -808,7 +808,7 @@
         <v>4.250152833075401</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>6.281407046736496</v>
+        <v>6.281407046736495</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>6.94509488823366</v>
@@ -817,7 +817,7 @@
         <v>9.541367765891186</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>8.890684785258335</v>
+        <v>8.890684785258337</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>5.262822764471834</v>
@@ -826,7 +826,7 @@
         <v>5.986241504773433</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8.464058983799161</v>
+        <v>8.464058983799163</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>7.093375526748379</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.807521941471661</v>
+        <v>2.811712716285254</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.203487859282341</v>
+        <v>4.168051147424555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.107391207089345</v>
+        <v>6.094306289253132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.418320204517596</v>
+        <v>3.37629017614239</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.526566086156626</v>
+        <v>5.427028666909944</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.359317921746551</v>
+        <v>6.41336564300178</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.682810300538746</v>
+        <v>8.720127808581793</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.163371488425748</v>
+        <v>7.080005148228168</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.663273638230225</v>
+        <v>4.710799732065086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.586126034510778</v>
+        <v>5.517860378420216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.794901137596431</v>
+        <v>7.772175596500653</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.863229321325196</v>
+        <v>5.793079501058262</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.469750214647722</v>
+        <v>4.420894841428856</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.425706135154023</v>
+        <v>5.422009874675148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.878467879230316</v>
+        <v>7.770924363339873</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.502762433965463</v>
+        <v>5.297621938355704</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.22165519048418</v>
+        <v>7.123454034379447</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.524516270225185</v>
+        <v>7.640914769224299</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>10.65914468361273</v>
+        <v>10.56340312981674</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>11.98577723296428</v>
+        <v>11.77433198107151</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.944850105452929</v>
+        <v>5.962885557524079</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.431933507615494</v>
+        <v>6.453837451312443</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9.174318326462567</v>
+        <v>9.139717842833324</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>9.4011736185318</v>
+        <v>9.051478980491286</v>
       </c>
     </row>
     <row r="10">
@@ -941,19 +941,19 @@
         <v>7.232400126119925</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.75480847857967</v>
+        <v>6.754808478579669</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>5.232882920680218</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.077660728791271</v>
+        <v>6.077660728791269</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.647293046474071</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>10.16419480983163</v>
+        <v>10.16419480983162</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>4.305066756803212</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.160493089945056</v>
+        <v>3.131157477033987</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.808174724526928</v>
+        <v>4.686693858061255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.240472360456399</v>
+        <v>6.282464513744409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.858971504343773</v>
+        <v>4.768580826079726</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.315894709371462</v>
+        <v>4.220690079538755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.437562975771325</v>
+        <v>5.355130562500888</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.498799702140673</v>
+        <v>6.381990548692505</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.369676815633132</v>
+        <v>7.103351818889676</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.726290750439664</v>
+        <v>3.773503520577511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.16361366348015</v>
+        <v>5.127232945690022</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.512207055370334</v>
+        <v>6.492598129205803</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>5.954649318530606</v>
+        <v>5.785129584352666</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.677832856087675</v>
+        <v>4.569806359553552</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.89094939013354</v>
+        <v>5.825112772012135</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.403458331197228</v>
+        <v>8.284361212391202</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.4841271031869</v>
+        <v>10.45992988981054</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.472567327107438</v>
+        <v>6.283234481763882</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.73158973820787</v>
+        <v>6.733499682501833</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.443538804806764</v>
+        <v>9.289350902270352</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.80511004749443</v>
+        <v>14.18981127078433</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.041689899334073</v>
+        <v>5.007449456779034</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.009381202063049</v>
+        <v>5.985199699674407</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8.250030876623544</v>
+        <v>8.196903492604998</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>10.60280351358497</v>
+        <v>10.38541691779453</v>
       </c>
     </row>
     <row r="13">
@@ -1071,16 +1071,16 @@
         <v>4.223311167724077</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.970895801423364</v>
+        <v>4.970895801423362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7.417072180994959</v>
+        <v>7.417072180994958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.292865493252575</v>
+        <v>6.292865493252573</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>6.387717859833509</v>
+        <v>6.387717859833508</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>6.907530435265786</v>
@@ -1089,10 +1089,10 @@
         <v>9.496152976103145</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>8.985836763115906</v>
+        <v>8.985836763115907</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>5.335921074875409</v>
+        <v>5.335921074875407</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>6.0122469967612</v>
@@ -1101,7 +1101,7 @@
         <v>8.564309245133629</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.675096138214521</v>
+        <v>7.675096138214522</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.733262368216433</v>
+        <v>3.727465674130282</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.582298253851826</v>
+        <v>4.614431368479281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.648253685580176</v>
+        <v>6.706320836712174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.359911262320456</v>
+        <v>5.371969685717655</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.69641090414424</v>
+        <v>5.718324901506374</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.48581217628287</v>
+        <v>6.505804849586938</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.8408489419906</v>
+        <v>8.784177576757592</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>8.052481974754548</v>
+        <v>7.928792988902843</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.873714805113664</v>
+        <v>4.892182033973659</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.738970683733132</v>
+        <v>5.740932814173329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.991061272548886</v>
+        <v>8.077849838202772</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.89143450824303</v>
+        <v>6.979269655028777</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.921223095754808</v>
+        <v>4.982609004709466</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.370367409399938</v>
+        <v>5.400949295802695</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.19200181237364</v>
+        <v>8.335083268644166</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.929147735311273</v>
+        <v>7.857959969474118</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.357689448320362</v>
+        <v>7.285471955491582</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.305973016434577</v>
+        <v>7.331925357494992</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.31461094396751</v>
+        <v>10.28305126426149</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10.11684930916084</v>
+        <v>10.03425556200926</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>5.889827526414805</v>
+        <v>5.890422157612145</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.327649759597068</v>
+        <v>6.329312656118869</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9.119063267301518</v>
+        <v>9.143534952163584</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>8.593486553941718</v>
+        <v>8.55011649737814</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>6.745140671775292</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.222516948291553</v>
+        <v>6.222516948291554</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>6.827994499346165</v>
@@ -1222,22 +1222,22 @@
         <v>6.812611245207188</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>8.087214592939521</v>
+        <v>8.087214592939523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7.644582367906009</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.397668548649459</v>
+        <v>6.39766854864946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6.40636708962978</v>
+        <v>6.406367089629779</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>7.613223512732191</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>7.332297841325818</v>
+        <v>7.332297841325819</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.808638207891169</v>
+        <v>3.876945534398801</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.696572829577076</v>
+        <v>4.704369409475113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.821755732379934</v>
+        <v>5.853133504285244</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.765601908474896</v>
+        <v>4.832396515909377</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.064810725229177</v>
+        <v>5.981608114188082</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.352582760578085</v>
+        <v>6.343894175694334</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.35059071043658</v>
+        <v>7.360855741279555</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.906007734366741</v>
+        <v>6.904262958063342</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.682143498376572</v>
+        <v>5.69550145849176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.012134479715234</v>
+        <v>6.041622651848767</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.975005135575945</v>
+        <v>6.990826026099875</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.607621613409998</v>
+        <v>6.688890774513037</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.098615341335868</v>
+        <v>6.988087307383447</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.041870787247135</v>
+        <v>6.013973851175358</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.16606994200872</v>
+        <v>7.990270573063618</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.459390207105917</v>
+        <v>8.770249328128276</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.77681171448024</v>
+        <v>7.812232483853744</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.225992224245348</v>
+        <v>7.309181262499227</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.900984910076991</v>
+        <v>8.938040837084081</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.556246189114237</v>
+        <v>8.547595743952099</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.189809226116692</v>
+        <v>7.228105269100287</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.773218527553706</v>
+        <v>6.793890044496218</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8.263924278128004</v>
+        <v>8.286509174621267</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.185205147390761</v>
+        <v>8.289390349546823</v>
       </c>
     </row>
     <row r="19">
@@ -1352,7 +1352,7 @@
         <v>2.73045521769583</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>6.182185836095298</v>
+        <v>6.182185836095297</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>6.779491425876078</v>
@@ -1367,7 +1367,7 @@
         <v>6.143643335308607</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6.658177684298453</v>
+        <v>6.658177684298452</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>8.308904437603385</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.240670598881559</v>
+        <v>2.299776273596327</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.621789359992139</v>
+        <v>1.590847242224106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.912694304733744</v>
+        <v>3.003195869859977</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.042071989217466</v>
+        <v>2.0415640982339</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>5.427058693854257</v>
+        <v>5.450007476605594</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.312463077766036</v>
+        <v>6.29387287400311</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.83439007977989</v>
+        <v>7.82672788288554</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>5.186249327223333</v>
+        <v>5.286729940081137</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>5.418311758692866</v>
+        <v>5.403679301495576</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6.169660620610851</v>
+        <v>6.171926358853411</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7.435659675714049</v>
+        <v>7.427160463534091</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>4.871643619583951</v>
+        <v>4.874186345996677</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.416266274395484</v>
+        <v>9.318292875544236</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.667553704735019</v>
+        <v>3.596121586947709</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.812791937855192</v>
+        <v>6.012015108710266</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.399938160087705</v>
+        <v>7.312953073187324</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>6.933750609258936</v>
+        <v>7.00558130208684</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.32192132334026</v>
+        <v>7.222780026766303</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.850286816126474</v>
+        <v>9.871865880655479</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>8.099009881522184</v>
+        <v>8.349626071630873</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>6.922753177068933</v>
+        <v>6.909364368388279</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.158086005227136</v>
+        <v>7.178823575351779</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9.285473004259922</v>
+        <v>9.286313976776228</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>7.678668743565985</v>
+        <v>7.613784325072996</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.644581461963075</v>
+        <v>3.650941753542623</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.692205972485391</v>
+        <v>4.682991712941492</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.47355443208278</v>
+        <v>6.514733068740686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.513691523649279</v>
+        <v>5.462970569737633</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.853006283453067</v>
+        <v>5.871515222750467</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.521601331396698</v>
+        <v>6.540789209901234</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>8.556983026649867</v>
+        <v>8.575148636814518</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.415974961877662</v>
+        <v>7.345060863051139</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.112708705846193</v>
+        <v>5.080429154098357</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.862329023866012</v>
+        <v>5.872897850122587</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7.854059640153149</v>
+        <v>7.840430245070204</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>6.762393355891842</v>
+        <v>6.815641553129781</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.363671523177787</v>
+        <v>4.322906780933084</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.153444691603068</v>
+        <v>5.163339857580088</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.32620992029155</v>
+        <v>7.323428011478391</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.187695149969119</v>
+        <v>7.07417458868078</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.586547269032722</v>
+        <v>6.566512286141593</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.971453359437027</v>
+        <v>6.968589488484377</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.354170923802588</v>
+        <v>9.353001220003788</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.552695493498105</v>
+        <v>8.604832537142563</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.620558650563106</v>
+        <v>5.61091937331146</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6.180021530756103</v>
+        <v>6.214140798089698</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8.424890380967547</v>
+        <v>8.412842702928804</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>7.741618023187589</v>
+        <v>7.759516427154098</v>
       </c>
     </row>
     <row r="25">
